--- a/SDF.xlsx
+++ b/SDF.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="200">
   <si>
     <t>No.</t>
   </si>
@@ -69,6 +69,9 @@
     <t>M 1</t>
   </si>
   <si>
+    <t>do something</t>
+  </si>
+  <si>
     <t>Cause 2</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t>Button pressed(Being pressed:Button)(Press button&lt;Not able to press&gt;:Patient)</t>
   </si>
   <si>
-    <t>Patient unable to press the button</t>
+    <t>Patient unable to press the button.</t>
   </si>
   <si>
     <t>Pre-Initiating event for H2</t>
@@ -96,6 +99,9 @@
     <t>Unfamiliarity with system operation</t>
   </si>
   <si>
+    <t>dd</t>
+  </si>
+  <si>
     <t>H3</t>
   </si>
   <si>
@@ -111,7 +117,7 @@
     <t>Patient forgets</t>
   </si>
   <si>
-    <t>Misinterpretation of doctor prescription</t>
+    <t>Misinterpretation of doctor prescription.</t>
   </si>
   <si>
     <t>H4</t>
@@ -126,171 +132,174 @@
     <t>Pre-Initiating event for H4</t>
   </si>
   <si>
+    <t>Deterioration due to long term use.</t>
+  </si>
+  <si>
+    <t>Deterioration due to accidental event.</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Select dose(Being modified:Potentiometer)(Vary dosage&lt;Wrong dosage&gt;:Doctor)</t>
+  </si>
+  <si>
+    <t>Doctor prescribes the wrong dose</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H5</t>
+  </si>
+  <si>
+    <t>Error in the programming of the device</t>
+  </si>
+  <si>
+    <t>Doctor's calculation error</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Select dose(Being modified:Potentiometer)(Being modified&lt;Physical damage&gt;:Potentiometer)</t>
+  </si>
+  <si>
+    <t>Damage of the potentiometer system</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H6</t>
+  </si>
+  <si>
+    <t>Deterioration</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Potentiometer)</t>
+  </si>
+  <si>
+    <t>Sending wrong information</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H7</t>
+  </si>
+  <si>
+    <t>System deterioration</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Encoder)</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Button)</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>Information transfer(Receive information:Processor)(Receive information&lt;Unable to receive&gt;:Processor)</t>
+  </si>
+  <si>
+    <t>Processor unable to receive information</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H10</t>
+  </si>
+  <si>
+    <t>Failure in the transmission system (wires, electronic components...)</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>Information transfer(Receive information:Processor)(Receive information&lt;Misunderstanding information&gt;:Processor)</t>
+  </si>
+  <si>
+    <t>Processor misunderstanding good information</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H11</t>
+  </si>
+  <si>
+    <t>Failure in the communication protocol</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>Electricity consumption(Electricity consumer:Processor)(Electricity source&lt;Wrong power supply&gt;:Power supply)</t>
+  </si>
+  <si>
+    <t>Error in the power supply</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H12</t>
+  </si>
+  <si>
+    <t>Too much / too little voltage</t>
+  </si>
+  <si>
+    <t>Too much / too little current</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>Control code(Code consumer:Processor)(Code source&lt;CodeErrors&gt;:Firmware)</t>
+  </si>
+  <si>
+    <t>Code errors leading to undesired behavior</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H13</t>
+  </si>
+  <si>
+    <t>Any kind of coding errors</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>Motor sensing(Being sensed:Motor)(Sense position&lt;Alignment&gt;:Encoder)</t>
+  </si>
+  <si>
+    <t>Missalignment of encoder sensor and motor leading to wrong signals</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H14</t>
+  </si>
+  <si>
+    <t>Wrong manufacturing</t>
+  </si>
+  <si>
+    <t>Misalignment due to rapid acceleration or hit</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>Motor sensing(Being sensed:Motor)(Sense position&lt;Deterioration&gt;:Encoder)</t>
+  </si>
+  <si>
+    <t>Physical damage on sensor</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H15</t>
+  </si>
+  <si>
     <t>Deterioration due to long term use</t>
   </si>
   <si>
-    <t>Deterioration due to accidental event</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>Select dose(Being modified:Potentiometer)(Vary dosage&lt;Wrong dosage&gt;:Doctor)</t>
-  </si>
-  <si>
-    <t>Doctor prescribes the wrong dose</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H5</t>
-  </si>
-  <si>
-    <t>Error in the programming of the device</t>
-  </si>
-  <si>
-    <t>Doctor's calculation error</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>Select dose(Being modified:Potentiometer)(Being modified&lt;Physical damage&gt;:Potentiometer)</t>
-  </si>
-  <si>
-    <t>Damage of the potentiometer system</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H6</t>
-  </si>
-  <si>
-    <t>Deterioration</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Potentiometer)</t>
-  </si>
-  <si>
-    <t>Sending wrong information</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H7</t>
-  </si>
-  <si>
-    <t>System deterioration</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Encoder)</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>Information transfer(Receive information:Processor)(Send information&lt;Wrong information&gt;:Button)</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>Information transfer(Receive information:Processor)(Receive information&lt;Unable to receive&gt;:Processor)</t>
-  </si>
-  <si>
-    <t>Processor unable to receive information</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H10</t>
-  </si>
-  <si>
-    <t>Failure in the transmission system (wires, electronic components...)</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>Information transfer(Receive information:Processor)(Receive information&lt;Misunderstanding information&gt;:Processor)</t>
-  </si>
-  <si>
-    <t>Processor misunderstanding good information</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H11</t>
-  </si>
-  <si>
-    <t>Failure in the communication protocol</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>Electricity consumption(Electricity consumer:Processor)(Electricity source&lt;Wrong power supply&gt;:Power supply)</t>
-  </si>
-  <si>
-    <t>Error in the power supply</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H12</t>
-  </si>
-  <si>
-    <t>Too much / too little voltage</t>
-  </si>
-  <si>
-    <t>Too much / too little current</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>Control code(Code consumer:Processor)(Code source&lt;CodeErrors&gt;:Firmware)</t>
-  </si>
-  <si>
-    <t>Code errors leading to undesired behavior</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H13</t>
-  </si>
-  <si>
-    <t>Any kind of coding errors</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>Motor sensing(Being sensed:Motor)(Sense position&lt;Alignment&gt;:Encoder)</t>
-  </si>
-  <si>
-    <t>Missalignment of encoder sensor and motor leading to wrong signals</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H14</t>
-  </si>
-  <si>
-    <t>Wrong manufacturing</t>
-  </si>
-  <si>
-    <t>Misalignment due to rapid acceleration or hit</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>Motor sensing(Being sensed:Motor)(Sense position&lt;Deterioration&gt;:Encoder)</t>
-  </si>
-  <si>
-    <t>Physical damage on sensor</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H15</t>
-  </si>
-  <si>
     <t>H16</t>
   </si>
   <si>
@@ -474,124 +483,136 @@
     <t>Pre-Initiating event for H27</t>
   </si>
   <si>
+    <t>H28</t>
+  </si>
+  <si>
+    <t>Drug delivery(Being pushed:Drug)(Being emptied&lt;hmm&gt;:Cartridge)</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H28</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
+    <t>cause 1, H:3</t>
+  </si>
+  <si>
+    <t>M:1</t>
+  </si>
+  <si>
+    <t>cause 1, H:19</t>
+  </si>
+  <si>
+    <t>cause 1, H:23</t>
+  </si>
+  <si>
+    <t>cause 2, H:1</t>
+  </si>
+  <si>
+    <t>M:2</t>
+  </si>
+  <si>
+    <t>cause 2, H:3</t>
+  </si>
+  <si>
+    <t>cause 1, H:5</t>
+  </si>
+  <si>
+    <t>cause 2, H:5</t>
+  </si>
+  <si>
+    <t>cause 1, H:6</t>
+  </si>
+  <si>
+    <t>cause 1, H:7</t>
+  </si>
+  <si>
+    <t>cause 1, H:8</t>
+  </si>
+  <si>
+    <t>cause 1, H:13</t>
+  </si>
+  <si>
+    <t>cause 1, H:16</t>
+  </si>
+  <si>
+    <t>cause 2, H:16</t>
+  </si>
+  <si>
+    <t>cause 1, H:18</t>
+  </si>
+  <si>
+    <t>cause 1, H:21</t>
+  </si>
+  <si>
+    <t>cause 1, H:22</t>
+  </si>
+  <si>
+    <t>cause 1, H:25</t>
+  </si>
+  <si>
+    <t>cause 1, H:2</t>
+  </si>
+  <si>
+    <t>cause 1, H:4</t>
+  </si>
+  <si>
+    <t>cause 2, H:4</t>
+  </si>
+  <si>
+    <t>cause 1, H:9</t>
+  </si>
+  <si>
+    <t>cause 1, H:10</t>
+  </si>
+  <si>
+    <t>cause 1, H:11</t>
+  </si>
+  <si>
+    <t>cause 1, H:12</t>
+  </si>
+  <si>
+    <t>cause 2, H:12</t>
+  </si>
+  <si>
+    <t>cause 1, H:14</t>
+  </si>
+  <si>
+    <t>cause 2, H:14</t>
+  </si>
+  <si>
+    <t>cause 1, H:15</t>
+  </si>
+  <si>
+    <t>cause 1, H:17</t>
+  </si>
+  <si>
+    <t>cause 1, H:20</t>
+  </si>
+  <si>
+    <t>cause 2, H:20</t>
+  </si>
+  <si>
+    <t>cause 1, H:24</t>
+  </si>
+  <si>
+    <t>cause 2, H:24</t>
+  </si>
+  <si>
+    <t>cause 2, H:25</t>
+  </si>
+  <si>
     <t>cause 1, H:1</t>
   </si>
   <si>
-    <t>M:1</t>
-  </si>
-  <si>
     <t>cause 1, H:26</t>
   </si>
   <si>
     <t>cause 1, H:27</t>
-  </si>
-  <si>
-    <t>cause 1, H:2</t>
-  </si>
-  <si>
-    <t>cause 1, H:4</t>
-  </si>
-  <si>
-    <t>cause 2, H:4</t>
-  </si>
-  <si>
-    <t>M:2</t>
-  </si>
-  <si>
-    <t>cause 1, H:9</t>
-  </si>
-  <si>
-    <t>cause 1, H:10</t>
-  </si>
-  <si>
-    <t>cause 1, H:11</t>
-  </si>
-  <si>
-    <t>cause 1, H:12</t>
-  </si>
-  <si>
-    <t>cause 2, H:12</t>
-  </si>
-  <si>
-    <t>cause 1, H:14</t>
-  </si>
-  <si>
-    <t>cause 2, H:14</t>
-  </si>
-  <si>
-    <t>cause 1, H:15</t>
-  </si>
-  <si>
-    <t>cause 1, H:17</t>
-  </si>
-  <si>
-    <t>cause 1, H:20</t>
-  </si>
-  <si>
-    <t>cause 2, H:20</t>
-  </si>
-  <si>
-    <t>cause 1, H:24</t>
-  </si>
-  <si>
-    <t>cause 2, H:24</t>
-  </si>
-  <si>
-    <t>cause 2, H:25</t>
-  </si>
-  <si>
-    <t>cause 2, H:1</t>
-  </si>
-  <si>
-    <t>cause 2, H:3</t>
-  </si>
-  <si>
-    <t>cause 1, H:5</t>
-  </si>
-  <si>
-    <t>cause 2, H:5</t>
-  </si>
-  <si>
-    <t>cause 1, H:6</t>
-  </si>
-  <si>
-    <t>cause 1, H:7</t>
-  </si>
-  <si>
-    <t>cause 1, H:8</t>
-  </si>
-  <si>
-    <t>cause 1, H:13</t>
-  </si>
-  <si>
-    <t>cause 1, H:16</t>
-  </si>
-  <si>
-    <t>cause 2, H:16</t>
-  </si>
-  <si>
-    <t>cause 1, H:18</t>
-  </si>
-  <si>
-    <t>cause 1, H:21</t>
-  </si>
-  <si>
-    <t>cause 1, H:22</t>
-  </si>
-  <si>
-    <t>cause 1, H:25</t>
-  </si>
-  <si>
-    <t>cause 1, H:3</t>
-  </si>
-  <si>
-    <t>cause 1, H:19</t>
-  </si>
-  <si>
-    <t>cause 1, H:23</t>
   </si>
 </sst>
 </file>
@@ -599,13 +620,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="55">
+  <fonts count="57">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -924,8 +954,8 @@
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -965,6 +995,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -985,23 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1107,14 +1137,16 @@
       <c r="G6" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>0.25</v>
@@ -1126,10 +1158,10 @@
         <v>0.1875</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1143,10 +1175,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1170,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>8</v>
@@ -1196,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>0.25</v>
@@ -1213,7 +1245,9 @@
       <c r="G14" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -1225,10 +1259,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1252,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>8</v>
@@ -1278,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>0.5</v>
@@ -1290,19 +1324,21 @@
         <v>0.25</v>
       </c>
       <c r="F21" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>0.25</v>
@@ -1314,12 +1350,14 @@
         <v>0.1875</v>
       </c>
       <c r="F22" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -1331,10 +1369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1350,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1358,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>8</v>
@@ -1384,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>0.25</v>
@@ -1405,10 +1443,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>0.25</v>
@@ -1423,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1437,10 +1475,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -1456,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -1464,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>8</v>
@@ -1490,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>0.25</v>
@@ -1502,7 +1540,7 @@
         <v>0.1875</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>17</v>
@@ -1511,10 +1549,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>0.25</v>
@@ -1526,10 +1564,10 @@
         <v>0.1875</v>
       </c>
       <c r="F38" t="s" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -1543,10 +1581,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1562,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1570,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s" s="1">
         <v>8</v>
@@ -1596,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>0.25</v>
@@ -1608,7 +1646,7 @@
         <v>0.1875</v>
       </c>
       <c r="F45" t="s" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>17</v>
@@ -1625,10 +1663,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1644,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1652,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>8</v>
@@ -1678,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>0.25</v>
@@ -1690,7 +1728,7 @@
         <v>0.1875</v>
       </c>
       <c r="F52" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>17</v>
@@ -1707,10 +1745,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1726,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -1734,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>8</v>
@@ -1760,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>0.25</v>
@@ -1772,7 +1810,7 @@
         <v>0.1875</v>
       </c>
       <c r="F59" t="s" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>17</v>
@@ -1789,10 +1827,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -1808,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
@@ -1816,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>8</v>
@@ -1842,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C66" t="n" s="2">
         <v>0.25</v>
@@ -1871,10 +1909,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -1890,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -1898,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s" s="1">
         <v>8</v>
@@ -1924,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C73" t="n" s="2">
         <v>0.25</v>
@@ -1953,10 +1991,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
@@ -1980,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>8</v>
@@ -2006,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80" t="n" s="2">
         <v>0.25</v>
@@ -2035,10 +2073,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
@@ -2054,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -2062,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>8</v>
@@ -2088,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n" s="2">
         <v>0.25</v>
@@ -2109,10 +2147,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C88" t="n" s="2">
         <v>0.25</v>
@@ -2127,7 +2165,7 @@
         <v>16</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -2141,10 +2179,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
@@ -2160,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
@@ -2168,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>8</v>
@@ -2194,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C95" t="n" s="2">
         <v>0.25</v>
@@ -2206,7 +2244,7 @@
         <v>0.1875</v>
       </c>
       <c r="F95" t="s" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>17</v>
@@ -2223,10 +2261,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
@@ -2242,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
@@ -2250,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>8</v>
@@ -2276,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C102" t="n" s="2">
         <v>0.25</v>
@@ -2297,10 +2335,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C103" t="n" s="2">
         <v>0.25</v>
@@ -2315,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H103" s="2"/>
     </row>
@@ -2329,10 +2367,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107">
@@ -2348,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109">
@@ -2356,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s" s="1">
         <v>8</v>
@@ -2382,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C110" t="n" s="2">
         <v>0.25</v>
@@ -2411,10 +2449,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
@@ -2430,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
@@ -2438,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C116" t="s" s="1">
         <v>8</v>
@@ -2464,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C117" t="n" s="2">
         <v>0.25</v>
@@ -2476,7 +2514,7 @@
         <v>0.1875</v>
       </c>
       <c r="F117" t="s" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>17</v>
@@ -2485,10 +2523,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C118" t="n" s="2">
         <v>0.25</v>
@@ -2500,10 +2538,10 @@
         <v>0.1875</v>
       </c>
       <c r="F118" t="s" s="25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -2517,10 +2555,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
@@ -2536,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124">
@@ -2544,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C124" t="s" s="1">
         <v>8</v>
@@ -2570,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C125" t="n" s="2">
         <v>0.25</v>
@@ -2599,10 +2637,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
@@ -2618,7 +2656,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131">
@@ -2626,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C131" t="s" s="1">
         <v>8</v>
@@ -2652,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C132" t="n" s="2">
         <v>0.25</v>
@@ -2664,7 +2702,7 @@
         <v>0.1875</v>
       </c>
       <c r="F132" t="s" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>17</v>
@@ -2681,10 +2719,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136">
@@ -2700,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
@@ -2708,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s" s="1">
         <v>8</v>
@@ -2734,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C139" t="n" s="2">
         <v>0.5</v>
@@ -2746,7 +2784,7 @@
         <v>0.25</v>
       </c>
       <c r="F139" t="s" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>17</v>
@@ -2763,10 +2801,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
@@ -2782,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145">
@@ -2790,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C145" t="s" s="1">
         <v>8</v>
@@ -2816,7 +2854,7 @@
         <v>14</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C146" t="n" s="2">
         <v>0.5</v>
@@ -2837,10 +2875,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C147" t="n" s="2">
         <v>0.25</v>
@@ -2855,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H147" s="2"/>
     </row>
@@ -2869,10 +2907,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
@@ -2888,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153">
@@ -2896,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s" s="1">
         <v>8</v>
@@ -2922,7 +2960,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C154" t="n" s="2">
         <v>0.25</v>
@@ -2934,7 +2972,7 @@
         <v>0.1875</v>
       </c>
       <c r="F154" t="s" s="31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>17</v>
@@ -2951,10 +2989,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158">
@@ -2970,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
@@ -2978,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s" s="1">
         <v>8</v>
@@ -3004,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C161" t="n" s="2">
         <v>0.25</v>
@@ -3016,7 +3054,7 @@
         <v>0.1875</v>
       </c>
       <c r="F161" t="s" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>17</v>
@@ -3033,10 +3071,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165">
@@ -3052,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167">
@@ -3060,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s" s="1">
         <v>8</v>
@@ -3086,7 +3124,7 @@
         <v>14</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C168" t="n" s="2">
         <v>0.5</v>
@@ -3098,7 +3136,7 @@
         <v>0.25</v>
       </c>
       <c r="F168" t="s" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>17</v>
@@ -3115,10 +3153,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
@@ -3134,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174">
@@ -3142,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C174" t="s" s="1">
         <v>8</v>
@@ -3168,7 +3206,7 @@
         <v>14</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C175" t="n" s="2">
         <v>0.5</v>
@@ -3189,10 +3227,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C176" t="n" s="2">
         <v>0.25</v>
@@ -3207,7 +3245,7 @@
         <v>16</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H176" s="2"/>
     </row>
@@ -3221,10 +3259,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
@@ -3240,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182">
@@ -3248,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C182" t="s" s="1">
         <v>8</v>
@@ -3274,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C183" t="n" s="2">
         <v>0.25</v>
@@ -3286,7 +3324,7 @@
         <v>0.1875</v>
       </c>
       <c r="F183" t="s" s="36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>17</v>
@@ -3295,10 +3333,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C184" t="n" s="2">
         <v>0.25</v>
@@ -3313,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H184" s="2"/>
     </row>
@@ -3327,10 +3365,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188">
@@ -3346,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190">
@@ -3354,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C190" t="s" s="1">
         <v>8</v>
@@ -3380,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C191" t="n" s="2">
         <v>0.25</v>
@@ -3409,10 +3447,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195">
@@ -3428,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197">
@@ -3436,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>8</v>
@@ -3462,7 +3500,7 @@
         <v>14</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C198" t="n" s="2">
         <v>0.25</v>
@@ -3480,6 +3518,64 @@
         <v>17</v>
       </c>
       <c r="H198" s="2"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G204" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H204" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3518,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>8</v>
@@ -3541,532 +3637,536 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n" s="2">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="H2" t="s" s="40">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="H3" t="s" s="41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="s" s="42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H5" t="s" s="43">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="E6" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H6" t="s" s="44">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H7" t="s" s="45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H8" t="s" s="46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H9" t="s" s="47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H10" t="s" s="48">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H11" t="s" s="49">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H12" t="s" s="50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H13" t="s" s="51">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H14" t="s" s="52">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E15" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H15" t="s" s="53">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E16" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H16" t="s" s="54">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H17" t="s" s="55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E18" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H18" t="s" s="56">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="n" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F19" t="n" s="2">
-        <v>0.25</v>
       </c>
       <c r="G19" t="n" s="2">
         <v>0.125</v>
@@ -4075,22 +4175,24 @@
         <v>16</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n" s="2">
         <v>0.25</v>
@@ -4105,22 +4207,22 @@
         <v>16</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n" s="2">
         <v>0.25</v>
@@ -4135,517 +4237,519 @@
         <v>16</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H22" t="s" s="60">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H23" t="s" s="61">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H24" t="s" s="62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H25" t="s" s="63">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H26" t="s" s="64">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E27" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H27" t="s" s="65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E28" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H28" t="s" s="66">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H29" t="s" s="67">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E30" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H30" t="s" s="68">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E31" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H31" t="s" s="69">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E32" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H32" t="s" s="70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E33" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H33" t="s" s="71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E34" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H34" t="s" s="72">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E35" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F35" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="n" s="2">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H35" t="s" s="73">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F36" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G36" t="n" s="2">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="H36" t="s" s="74">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E37" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F37" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="n" s="2">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="H37" t="s" s="75">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E38" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F38" t="n" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G38" t="n" s="2">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="H38" t="s" s="76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J38" s="2"/>
     </row>

--- a/SDF.xlsx
+++ b/SDF.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="200">
   <si>
     <t>No.</t>
   </si>
@@ -519,94 +519,94 @@
     <t>cause 2, H:3</t>
   </si>
   <si>
+    <t>cause 2, H:5</t>
+  </si>
+  <si>
+    <t>cause 1, H:7</t>
+  </si>
+  <si>
+    <t>cause 1, H:8</t>
+  </si>
+  <si>
+    <t>cause 1, H:13</t>
+  </si>
+  <si>
+    <t>cause 1, H:16</t>
+  </si>
+  <si>
+    <t>cause 2, H:16</t>
+  </si>
+  <si>
+    <t>cause 1, H:18</t>
+  </si>
+  <si>
+    <t>cause 1, H:21</t>
+  </si>
+  <si>
+    <t>cause 1, H:22</t>
+  </si>
+  <si>
+    <t>cause 1, H:25</t>
+  </si>
+  <si>
+    <t>cause 1, H:20</t>
+  </si>
+  <si>
+    <t>cause 1, H:24</t>
+  </si>
+  <si>
+    <t>cause 1, H:2</t>
+  </si>
+  <si>
+    <t>cause 1, H:4</t>
+  </si>
+  <si>
+    <t>cause 2, H:4</t>
+  </si>
+  <si>
+    <t>cause 1, H:6</t>
+  </si>
+  <si>
+    <t>cause 1, H:9</t>
+  </si>
+  <si>
+    <t>cause 1, H:10</t>
+  </si>
+  <si>
+    <t>cause 1, H:11</t>
+  </si>
+  <si>
+    <t>cause 1, H:12</t>
+  </si>
+  <si>
+    <t>cause 2, H:12</t>
+  </si>
+  <si>
+    <t>cause 1, H:14</t>
+  </si>
+  <si>
+    <t>cause 2, H:14</t>
+  </si>
+  <si>
+    <t>cause 1, H:15</t>
+  </si>
+  <si>
+    <t>cause 1, H:17</t>
+  </si>
+  <si>
+    <t>cause 2, H:20</t>
+  </si>
+  <si>
+    <t>cause 2, H:24</t>
+  </si>
+  <si>
+    <t>cause 2, H:25</t>
+  </si>
+  <si>
+    <t>cause 1, H:1</t>
+  </si>
+  <si>
     <t>cause 1, H:5</t>
-  </si>
-  <si>
-    <t>cause 2, H:5</t>
-  </si>
-  <si>
-    <t>cause 1, H:6</t>
-  </si>
-  <si>
-    <t>cause 1, H:7</t>
-  </si>
-  <si>
-    <t>cause 1, H:8</t>
-  </si>
-  <si>
-    <t>cause 1, H:13</t>
-  </si>
-  <si>
-    <t>cause 1, H:16</t>
-  </si>
-  <si>
-    <t>cause 2, H:16</t>
-  </si>
-  <si>
-    <t>cause 1, H:18</t>
-  </si>
-  <si>
-    <t>cause 1, H:21</t>
-  </si>
-  <si>
-    <t>cause 1, H:22</t>
-  </si>
-  <si>
-    <t>cause 1, H:25</t>
-  </si>
-  <si>
-    <t>cause 1, H:2</t>
-  </si>
-  <si>
-    <t>cause 1, H:4</t>
-  </si>
-  <si>
-    <t>cause 2, H:4</t>
-  </si>
-  <si>
-    <t>cause 1, H:9</t>
-  </si>
-  <si>
-    <t>cause 1, H:10</t>
-  </si>
-  <si>
-    <t>cause 1, H:11</t>
-  </si>
-  <si>
-    <t>cause 1, H:12</t>
-  </si>
-  <si>
-    <t>cause 2, H:12</t>
-  </si>
-  <si>
-    <t>cause 1, H:14</t>
-  </si>
-  <si>
-    <t>cause 2, H:14</t>
-  </si>
-  <si>
-    <t>cause 1, H:15</t>
-  </si>
-  <si>
-    <t>cause 1, H:17</t>
-  </si>
-  <si>
-    <t>cause 1, H:20</t>
-  </si>
-  <si>
-    <t>cause 2, H:20</t>
-  </si>
-  <si>
-    <t>cause 1, H:24</t>
-  </si>
-  <si>
-    <t>cause 2, H:24</t>
-  </si>
-  <si>
-    <t>cause 2, H:25</t>
-  </si>
-  <si>
-    <t>cause 1, H:1</t>
   </si>
   <si>
     <t>cause 1, H:26</t>
@@ -632,6 +632,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -641,6 +642,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -650,6 +652,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -659,6 +662,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -668,6 +672,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -677,6 +682,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -686,6 +692,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -695,6 +702,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -704,6 +712,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -713,6 +722,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -722,6 +732,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -731,6 +742,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -740,6 +752,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -749,6 +762,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -758,6 +772,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -767,6 +782,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -776,6 +792,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -785,6 +802,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -794,6 +812,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -803,6 +822,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -812,6 +832,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -821,6 +842,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -830,6 +852,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -839,6 +862,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -848,6 +872,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -857,6 +882,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -866,6 +892,7 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -875,13 +902,14 @@
       <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,12 +918,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
       </patternFill>
     </fill>
     <fill>
@@ -952,86 +990,188 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1058,10 +1198,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1114,6 +1254,19 @@
       <c r="H5" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I5" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -1131,7 +1284,7 @@
       <c r="E6" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="F6" t="s" s="4">
         <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
@@ -1139,6 +1292,18 @@
       </c>
       <c r="H6" t="s" s="2">
         <v>18</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J6" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1157,19 +1322,31 @@
       <c r="E7" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F7" t="s" s="4">
+      <c r="F7" t="s" s="6">
         <v>21</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H7" s="2"/>
+      <c r="I7" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J7" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K7" t="n" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="L7" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1">
+      <c r="A9" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" t="s" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1222,6 +1399,19 @@
       <c r="H13" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I13" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1239,7 +1429,7 @@
       <c r="E14" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" t="s" s="9">
         <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
@@ -1248,12 +1438,24 @@
       <c r="H14" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="I14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="1">
+      <c r="A16" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="B16" t="s" s="1">
+      <c r="B16" t="s" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1306,6 +1508,19 @@
       <c r="H20" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I20" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
@@ -1323,7 +1538,7 @@
       <c r="E21" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="F21" t="s" s="6">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
       <c r="G21" t="s" s="2">
@@ -1331,6 +1546,18 @@
       </c>
       <c r="H21" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="I21" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K21" t="n" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L21" t="s" s="13">
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1349,7 +1576,7 @@
       <c r="E22" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F22" t="s" s="7">
+      <c r="F22" t="s" s="14">
         <v>21</v>
       </c>
       <c r="G22" t="s" s="2">
@@ -1358,12 +1585,24 @@
       <c r="H22" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="I22" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J22" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L22" t="s" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="1">
+      <c r="A24" t="s" s="16">
         <v>0</v>
       </c>
-      <c r="B24" t="s" s="1">
+      <c r="B24" t="s" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1416,6 +1655,19 @@
       <c r="H28" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I28" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
@@ -1433,13 +1685,25 @@
       <c r="E29" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F29" t="s" s="8">
+      <c r="F29" t="s" s="17">
         <v>16</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H29" s="2"/>
+      <c r="I29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="s" s="18">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
@@ -1457,19 +1721,31 @@
       <c r="E30" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F30" t="s" s="9">
+      <c r="F30" t="s" s="19">
         <v>16</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H30" s="2"/>
+      <c r="I30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="s" s="20">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="1">
+      <c r="A32" t="s" s="21">
         <v>0</v>
       </c>
-      <c r="B32" t="s" s="1">
+      <c r="B32" t="s" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1522,6 +1798,19 @@
       <c r="H36" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I36" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
@@ -1534,18 +1823,30 @@
         <v>0.25</v>
       </c>
       <c r="D37" t="n" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E37" t="n" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F37" t="s" s="10">
-        <v>21</v>
+        <v>0.0625</v>
+      </c>
+      <c r="F37" t="s" s="22">
+        <v>16</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H37" s="2"/>
+      <c r="I37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="s" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
@@ -1563,19 +1864,31 @@
       <c r="E38" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F38" t="s" s="11">
+      <c r="F38" t="s" s="24">
         <v>21</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H38" s="2"/>
+      <c r="I38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="s" s="25">
+        <v>21</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="1">
+      <c r="A40" t="s" s="26">
         <v>0</v>
       </c>
-      <c r="B40" t="s" s="1">
+      <c r="B40" t="s" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1628,6 +1941,19 @@
       <c r="H44" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I44" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L44" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
@@ -1640,24 +1966,36 @@
         <v>0.25</v>
       </c>
       <c r="D45" t="n" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F45" t="s" s="12">
-        <v>21</v>
+        <v>0.125</v>
+      </c>
+      <c r="F45" t="s" s="27">
+        <v>16</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H45" s="2"/>
+      <c r="I45" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="s" s="28">
+        <v>16</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="1">
+      <c r="A47" t="s" s="29">
         <v>0</v>
       </c>
-      <c r="B47" t="s" s="1">
+      <c r="B47" t="s" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1710,6 +2048,19 @@
       <c r="H51" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I51" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J51" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
@@ -1727,19 +2078,31 @@
       <c r="E52" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F52" t="s" s="13">
+      <c r="F52" t="s" s="30">
         <v>21</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H52" s="2"/>
+      <c r="I52" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="s" s="31">
+        <v>21</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="1">
+      <c r="A54" t="s" s="32">
         <v>0</v>
       </c>
-      <c r="B54" t="s" s="1">
+      <c r="B54" t="s" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1792,6 +2155,19 @@
       <c r="H58" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I58" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J58" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K58" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
@@ -1809,19 +2185,31 @@
       <c r="E59" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F59" t="s" s="14">
+      <c r="F59" t="s" s="33">
         <v>21</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H59" s="2"/>
+      <c r="I59" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="s" s="34">
+        <v>21</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="1">
+      <c r="A61" t="s" s="35">
         <v>0</v>
       </c>
-      <c r="B61" t="s" s="1">
+      <c r="B61" t="s" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1874,6 +2262,19 @@
       <c r="H65" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I65" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K65" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
@@ -1891,19 +2292,31 @@
       <c r="E66" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F66" t="s" s="15">
+      <c r="F66" t="s" s="36">
         <v>16</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H66" s="2"/>
+      <c r="I66" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="s" s="37">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="1">
+      <c r="A68" t="s" s="38">
         <v>0</v>
       </c>
-      <c r="B68" t="s" s="1">
+      <c r="B68" t="s" s="38">
         <v>1</v>
       </c>
     </row>
@@ -1956,6 +2369,19 @@
       <c r="H72" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I72" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J72" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K72" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L72" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
@@ -1973,19 +2399,31 @@
       <c r="E73" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F73" t="s" s="16">
+      <c r="F73" t="s" s="39">
         <v>16</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H73" s="2"/>
+      <c r="I73" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="s" s="40">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="1">
+      <c r="A75" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B75" t="s" s="1">
+      <c r="B75" t="s" s="41">
         <v>1</v>
       </c>
     </row>
@@ -2038,6 +2476,19 @@
       <c r="H79" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I79" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J79" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
@@ -2055,19 +2506,31 @@
       <c r="E80" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F80" t="s" s="17">
+      <c r="F80" t="s" s="42">
         <v>16</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H80" s="2"/>
+      <c r="I80" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="s" s="43">
+        <v>16</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="1">
+      <c r="A82" t="s" s="44">
         <v>0</v>
       </c>
-      <c r="B82" t="s" s="1">
+      <c r="B82" t="s" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2120,6 +2583,19 @@
       <c r="H86" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I86" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J86" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K86" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L86" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
@@ -2137,13 +2613,25 @@
       <c r="E87" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F87" t="s" s="18">
+      <c r="F87" t="s" s="45">
         <v>16</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H87" s="2"/>
+      <c r="I87" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="s" s="46">
+        <v>16</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
@@ -2161,19 +2649,31 @@
       <c r="E88" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F88" t="s" s="19">
+      <c r="F88" t="s" s="47">
         <v>16</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H88" s="2"/>
+      <c r="I88" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="s" s="48">
+        <v>16</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="1">
+      <c r="A90" t="s" s="49">
         <v>0</v>
       </c>
-      <c r="B90" t="s" s="1">
+      <c r="B90" t="s" s="49">
         <v>1</v>
       </c>
     </row>
@@ -2226,6 +2726,19 @@
       <c r="H94" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I94" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J94" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K94" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L94" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
@@ -2243,19 +2756,31 @@
       <c r="E95" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F95" t="s" s="20">
+      <c r="F95" t="s" s="50">
         <v>21</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H95" s="2"/>
+      <c r="I95" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L95" t="s" s="51">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="1">
+      <c r="A97" t="s" s="52">
         <v>0</v>
       </c>
-      <c r="B97" t="s" s="1">
+      <c r="B97" t="s" s="52">
         <v>1</v>
       </c>
     </row>
@@ -2308,6 +2833,19 @@
       <c r="H101" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I101" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J101" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K101" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L101" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
@@ -2325,13 +2863,25 @@
       <c r="E102" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F102" t="s" s="21">
+      <c r="F102" t="s" s="53">
         <v>16</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H102" s="2"/>
+      <c r="I102" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K102" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L102" t="s" s="54">
+        <v>16</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
@@ -2349,19 +2899,31 @@
       <c r="E103" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F103" t="s" s="22">
+      <c r="F103" t="s" s="55">
         <v>16</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H103" s="2"/>
+      <c r="I103" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K103" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L103" t="s" s="56">
+        <v>16</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="1">
+      <c r="A105" t="s" s="57">
         <v>0</v>
       </c>
-      <c r="B105" t="s" s="1">
+      <c r="B105" t="s" s="57">
         <v>1</v>
       </c>
     </row>
@@ -2414,6 +2976,19 @@
       <c r="H109" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I109" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J109" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K109" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L109" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
@@ -2431,19 +3006,31 @@
       <c r="E110" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F110" t="s" s="23">
+      <c r="F110" t="s" s="58">
         <v>16</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H110" s="2"/>
+      <c r="I110" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J110" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K110" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L110" t="s" s="59">
+        <v>16</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="1">
+      <c r="A112" t="s" s="60">
         <v>0</v>
       </c>
-      <c r="B112" t="s" s="1">
+      <c r="B112" t="s" s="60">
         <v>1</v>
       </c>
     </row>
@@ -2496,6 +3083,19 @@
       <c r="H116" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I116" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J116" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K116" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L116" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
@@ -2513,13 +3113,25 @@
       <c r="E117" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F117" t="s" s="24">
+      <c r="F117" t="s" s="61">
         <v>21</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H117" s="2"/>
+      <c r="I117" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J117" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K117" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L117" t="s" s="62">
+        <v>21</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
@@ -2537,19 +3149,31 @@
       <c r="E118" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F118" t="s" s="25">
+      <c r="F118" t="s" s="63">
         <v>21</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H118" s="2"/>
+      <c r="I118" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J118" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K118" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L118" t="s" s="64">
+        <v>21</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="1">
+      <c r="A120" t="s" s="65">
         <v>0</v>
       </c>
-      <c r="B120" t="s" s="1">
+      <c r="B120" t="s" s="65">
         <v>1</v>
       </c>
     </row>
@@ -2602,6 +3226,19 @@
       <c r="H124" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I124" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J124" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K124" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L124" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
@@ -2619,19 +3256,31 @@
       <c r="E125" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F125" t="s" s="26">
+      <c r="F125" t="s" s="66">
         <v>16</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H125" s="2"/>
+      <c r="I125" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J125" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K125" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L125" t="s" s="67">
+        <v>16</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="1">
+      <c r="A127" t="s" s="68">
         <v>0</v>
       </c>
-      <c r="B127" t="s" s="1">
+      <c r="B127" t="s" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2684,6 +3333,19 @@
       <c r="H131" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I131" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J131" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K131" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L131" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
@@ -2701,19 +3363,31 @@
       <c r="E132" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F132" t="s" s="27">
+      <c r="F132" t="s" s="69">
         <v>21</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H132" s="2"/>
+      <c r="I132" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J132" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K132" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L132" t="s" s="70">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="1">
+      <c r="A134" t="s" s="71">
         <v>0</v>
       </c>
-      <c r="B134" t="s" s="1">
+      <c r="B134" t="s" s="71">
         <v>1</v>
       </c>
     </row>
@@ -2766,6 +3440,19 @@
       <c r="H138" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I138" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J138" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K138" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L138" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
@@ -2783,19 +3470,31 @@
       <c r="E139" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="F139" t="s" s="28">
+      <c r="F139" t="s" s="72">
         <v>21</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H139" s="2"/>
+      <c r="I139" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J139" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K139" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L139" t="s" s="73">
+        <v>21</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="1">
+      <c r="A141" t="s" s="74">
         <v>0</v>
       </c>
-      <c r="B141" t="s" s="1">
+      <c r="B141" t="s" s="74">
         <v>1</v>
       </c>
     </row>
@@ -2848,6 +3547,19 @@
       <c r="H145" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I145" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J145" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K145" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L145" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
@@ -2865,13 +3577,25 @@
       <c r="E146" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F146" t="s" s="29">
+      <c r="F146" t="s" s="75">
         <v>16</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H146" s="2"/>
+      <c r="I146" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J146" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K146" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L146" t="s" s="76">
+        <v>16</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
@@ -2889,19 +3613,31 @@
       <c r="E147" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F147" t="s" s="30">
+      <c r="F147" t="s" s="77">
         <v>16</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H147" s="2"/>
+      <c r="I147" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J147" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K147" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L147" t="s" s="78">
+        <v>16</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="1">
+      <c r="A149" t="s" s="79">
         <v>0</v>
       </c>
-      <c r="B149" t="s" s="1">
+      <c r="B149" t="s" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2954,6 +3690,19 @@
       <c r="H153" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I153" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J153" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K153" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L153" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
@@ -2971,19 +3720,31 @@
       <c r="E154" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F154" t="s" s="31">
+      <c r="F154" t="s" s="80">
         <v>21</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H154" s="2"/>
+      <c r="I154" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J154" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K154" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L154" t="s" s="81">
+        <v>21</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="1">
+      <c r="A156" t="s" s="82">
         <v>0</v>
       </c>
-      <c r="B156" t="s" s="1">
+      <c r="B156" t="s" s="82">
         <v>1</v>
       </c>
     </row>
@@ -3036,6 +3797,19 @@
       <c r="H160" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I160" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J160" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K160" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L160" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
@@ -3053,19 +3827,31 @@
       <c r="E161" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F161" t="s" s="32">
+      <c r="F161" t="s" s="83">
         <v>21</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H161" s="2"/>
+      <c r="I161" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J161" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K161" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L161" t="s" s="84">
+        <v>21</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="1">
+      <c r="A163" t="s" s="85">
         <v>0</v>
       </c>
-      <c r="B163" t="s" s="1">
+      <c r="B163" t="s" s="85">
         <v>1</v>
       </c>
     </row>
@@ -3118,6 +3904,19 @@
       <c r="H167" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I167" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J167" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K167" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L167" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
@@ -3135,19 +3934,31 @@
       <c r="E168" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="F168" t="s" s="33">
+      <c r="F168" t="s" s="86">
         <v>21</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H168" s="2"/>
+      <c r="I168" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J168" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K168" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L168" t="s" s="87">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="1">
+      <c r="A170" t="s" s="88">
         <v>0</v>
       </c>
-      <c r="B170" t="s" s="1">
+      <c r="B170" t="s" s="88">
         <v>1</v>
       </c>
     </row>
@@ -3200,6 +4011,19 @@
       <c r="H174" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I174" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J174" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K174" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L174" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
@@ -3217,13 +4041,25 @@
       <c r="E175" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F175" t="s" s="34">
+      <c r="F175" t="s" s="89">
         <v>16</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H175" s="2"/>
+      <c r="I175" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J175" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K175" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L175" t="s" s="90">
+        <v>16</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
@@ -3241,19 +4077,31 @@
       <c r="E176" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F176" t="s" s="35">
+      <c r="F176" t="s" s="91">
         <v>16</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H176" s="2"/>
+      <c r="I176" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J176" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K176" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L176" t="s" s="92">
+        <v>16</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="1">
+      <c r="A178" t="s" s="93">
         <v>0</v>
       </c>
-      <c r="B178" t="s" s="1">
+      <c r="B178" t="s" s="93">
         <v>1</v>
       </c>
     </row>
@@ -3306,6 +4154,19 @@
       <c r="H182" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I182" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J182" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K182" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L182" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
@@ -3323,13 +4184,25 @@
       <c r="E183" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="F183" t="s" s="36">
+      <c r="F183" t="s" s="94">
         <v>21</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H183" s="2"/>
+      <c r="I183" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J183" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K183" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L183" t="s" s="95">
+        <v>21</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
@@ -3347,19 +4220,31 @@
       <c r="E184" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="F184" t="s" s="37">
+      <c r="F184" t="s" s="96">
         <v>16</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>22</v>
       </c>
       <c r="H184" s="2"/>
+      <c r="I184" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J184" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K184" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L184" t="s" s="97">
+        <v>16</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="1">
+      <c r="A186" t="s" s="98">
         <v>0</v>
       </c>
-      <c r="B186" t="s" s="1">
+      <c r="B186" t="s" s="98">
         <v>1</v>
       </c>
     </row>
@@ -3412,6 +4297,19 @@
       <c r="H190" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I190" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J190" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K190" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L190" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
@@ -3429,19 +4327,31 @@
       <c r="E191" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="F191" t="s" s="38">
+      <c r="F191" t="s" s="99">
         <v>16</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H191" s="2"/>
+      <c r="I191" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J191" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K191" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L191" t="s" s="100">
+        <v>16</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="1">
+      <c r="A193" t="s" s="101">
         <v>0</v>
       </c>
-      <c r="B193" t="s" s="1">
+      <c r="B193" t="s" s="101">
         <v>1</v>
       </c>
     </row>
@@ -3494,6 +4404,19 @@
       <c r="H197" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I197" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J197" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K197" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L197" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
@@ -3511,19 +4434,31 @@
       <c r="E198" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="F198" t="s" s="39">
+      <c r="F198" t="s" s="102">
         <v>16</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H198" s="2"/>
+      <c r="I198" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J198" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K198" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L198" t="s" s="103">
+        <v>16</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="1">
+      <c r="A200" t="s" s="104">
         <v>0</v>
       </c>
-      <c r="B200" t="s" s="1">
+      <c r="B200" t="s" s="104">
         <v>1</v>
       </c>
     </row>
@@ -3576,6 +4511,19 @@
       <c r="H204" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="I204" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J204" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K204" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L204" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M204"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3601,6 +4549,10 @@
     <col min="8" max="8" width="7.546875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="5.66796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.15234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.75" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.1484375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="7.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3634,6 +4586,18 @@
       <c r="J1" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="K1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -3657,7 +4621,7 @@
       <c r="G2" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H2" t="s" s="40">
+      <c r="H2" t="s" s="105">
         <v>21</v>
       </c>
       <c r="I2" t="s" s="2">
@@ -3665,6 +4629,18 @@
       </c>
       <c r="J2" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="K2" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M2" t="n" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="N2" t="s" s="106">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -3689,13 +4665,25 @@
       <c r="G3" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H3" t="s" s="41">
+      <c r="H3" t="s" s="107">
         <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="K3" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="s" s="108">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -3719,13 +4707,25 @@
       <c r="G4" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H4" t="s" s="42">
+      <c r="H4" t="s" s="109">
         <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J4" s="2"/>
+      <c r="K4" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="s" s="110">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -3749,13 +4749,25 @@
       <c r="G5" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H5" t="s" s="43">
+      <c r="H5" t="s" s="111">
         <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>166</v>
       </c>
       <c r="J5" s="2"/>
+      <c r="K5" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L5" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M5" t="n" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="N5" t="s" s="112">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -3779,7 +4791,7 @@
       <c r="G6" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H6" t="s" s="44">
+      <c r="H6" t="s" s="113">
         <v>21</v>
       </c>
       <c r="I6" t="s" s="2">
@@ -3787,6 +4799,18 @@
       </c>
       <c r="J6" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="K6" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L6" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="N6" t="s" s="114">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -3800,7 +4824,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n" s="2">
         <v>0.25</v>
@@ -3811,26 +4835,38 @@
       <c r="G7" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H7" t="s" s="45">
+      <c r="H7" t="s" s="115">
         <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J7" s="2"/>
+      <c r="K7" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s" s="116">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>169</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n" s="2">
         <v>0.25</v>
@@ -3841,26 +4877,38 @@
       <c r="G8" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H8" t="s" s="46">
+      <c r="H8" t="s" s="117">
         <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J8" s="2"/>
+      <c r="K8" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="s" s="118">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>170</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n" s="2">
         <v>0.25</v>
@@ -3871,26 +4919,38 @@
       <c r="G9" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H9" t="s" s="47">
+      <c r="H9" t="s" s="119">
         <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J9" s="2"/>
+      <c r="K9" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="s" s="120">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
         <v>171</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n" s="2">
         <v>0.25</v>
@@ -3901,26 +4961,38 @@
       <c r="G10" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H10" t="s" s="48">
+      <c r="H10" t="s" s="121">
         <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J10" s="2"/>
+      <c r="K10" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="s" s="122">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
         <v>172</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E11" t="n" s="2">
         <v>0.25</v>
@@ -3931,26 +5003,38 @@
       <c r="G11" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H11" t="s" s="49">
+      <c r="H11" t="s" s="123">
         <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J11" s="2"/>
+      <c r="K11" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="s" s="124">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
         <v>173</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n" s="2">
         <v>0.25</v>
@@ -3961,26 +5045,38 @@
       <c r="G12" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H12" t="s" s="50">
+      <c r="H12" t="s" s="125">
         <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J12" s="2"/>
+      <c r="K12" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="s" s="126">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>174</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E13" t="n" s="2">
         <v>0.25</v>
@@ -3991,26 +5087,38 @@
       <c r="G13" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H13" t="s" s="51">
+      <c r="H13" t="s" s="127">
         <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J13" s="2"/>
+      <c r="K13" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="s" s="128">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E14" t="n" s="2">
         <v>0.25</v>
@@ -4021,26 +5129,38 @@
       <c r="G14" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H14" t="s" s="52">
+      <c r="H14" t="s" s="129">
         <v>21</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J14" s="2"/>
+      <c r="K14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="s" s="130">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E15" t="n" s="2">
         <v>0.25</v>
@@ -4051,26 +5171,38 @@
       <c r="G15" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H15" t="s" s="53">
+      <c r="H15" t="s" s="131">
         <v>21</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J15" s="2"/>
+      <c r="K15" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="s" s="132">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
         <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E16" t="n" s="2">
         <v>0.25</v>
@@ -4081,73 +5213,109 @@
       <c r="G16" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H16" t="s" s="54">
+      <c r="H16" t="s" s="133">
         <v>21</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J16" s="2"/>
+      <c r="K16" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="s" s="134">
+        <v>21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
         <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="H17" t="s" s="55">
-        <v>21</v>
+        <v>0.125</v>
+      </c>
+      <c r="H17" t="s" s="135">
+        <v>16</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J17" s="2"/>
+      <c r="K17" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="s" s="136">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
         <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E18" t="n" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="H18" t="s" s="56">
-        <v>21</v>
+        <v>0.125</v>
+      </c>
+      <c r="H18" t="s" s="137">
+        <v>16</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J18" s="2"/>
+      <c r="K18" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="s" s="138">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
@@ -4171,7 +5339,7 @@
       <c r="G19" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H19" t="s" s="57">
+      <c r="H19" t="s" s="139">
         <v>16</v>
       </c>
       <c r="I19" t="s" s="2">
@@ -4179,6 +5347,18 @@
       </c>
       <c r="J19" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="K19" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="s" s="140">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -4203,13 +5383,25 @@
       <c r="G20" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H20" t="s" s="58">
+      <c r="H20" t="s" s="141">
         <v>16</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J20" s="2"/>
+      <c r="K20" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="s" s="142">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
@@ -4233,26 +5425,38 @@
       <c r="G21" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H21" t="s" s="59">
+      <c r="H21" t="s" s="143">
         <v>16</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>166</v>
       </c>
       <c r="J21" s="2"/>
+      <c r="K21" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="s" s="144">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n" s="2">
         <v>0.25</v>
@@ -4263,26 +5467,38 @@
       <c r="G22" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H22" t="s" s="60">
+      <c r="H22" t="s" s="145">
         <v>16</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J22" s="2"/>
+      <c r="K22" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="s" s="146">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
         <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n" s="2">
         <v>0.25</v>
@@ -4293,26 +5509,38 @@
       <c r="G23" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H23" t="s" s="61">
+      <c r="H23" t="s" s="147">
         <v>16</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J23" s="2"/>
+      <c r="K23" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="s" s="148">
+        <v>16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
         <v>185</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n" s="2">
         <v>0.25</v>
@@ -4323,26 +5551,38 @@
       <c r="G24" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H24" t="s" s="62">
+      <c r="H24" t="s" s="149">
         <v>16</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J24" s="2"/>
+      <c r="K24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="s" s="150">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
         <v>186</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n" s="2">
         <v>0.25</v>
@@ -4353,13 +5593,25 @@
       <c r="G25" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H25" t="s" s="63">
+      <c r="H25" t="s" s="151">
         <v>16</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J25" s="2"/>
+      <c r="K25" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="s" s="152">
+        <v>16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
@@ -4372,7 +5624,7 @@
         <v>75</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n" s="2">
         <v>0.25</v>
@@ -4383,26 +5635,38 @@
       <c r="G26" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H26" t="s" s="64">
+      <c r="H26" t="s" s="153">
         <v>16</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J26" s="2"/>
+      <c r="K26" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="s" s="154">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
         <v>188</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n" s="2">
         <v>0.25</v>
@@ -4413,13 +5677,25 @@
       <c r="G27" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H27" t="s" s="65">
+      <c r="H27" t="s" s="155">
         <v>16</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J27" s="2"/>
+      <c r="K27" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="s" s="156">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
@@ -4432,7 +5708,7 @@
         <v>86</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="n" s="2">
         <v>0.25</v>
@@ -4443,26 +5719,38 @@
       <c r="G28" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H28" t="s" s="66">
+      <c r="H28" t="s" s="157">
         <v>16</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J28" s="2"/>
+      <c r="K28" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="s" s="158">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>190</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" t="n" s="2">
         <v>0.25</v>
@@ -4473,26 +5761,38 @@
       <c r="G29" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H29" t="s" s="67">
+      <c r="H29" t="s" s="159">
         <v>16</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J29" s="2"/>
+      <c r="K29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="s" s="160">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
         <v>191</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n" s="2">
         <v>0.25</v>
@@ -4503,43 +5803,67 @@
       <c r="G30" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H30" t="s" s="68">
+      <c r="H30" t="s" s="161">
         <v>16</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J30" s="2"/>
+      <c r="K30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="s" s="162">
+        <v>16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
         <v>192</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E31" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F31" t="n" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F31" t="n" s="2">
-        <v>0.25</v>
       </c>
       <c r="G31" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H31" t="s" s="69">
+      <c r="H31" t="s" s="163">
         <v>16</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J31" s="2"/>
+      <c r="K31" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="s" s="164">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
@@ -4563,13 +5887,25 @@
       <c r="G32" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H32" t="s" s="70">
+      <c r="H32" t="s" s="165">
         <v>16</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>166</v>
       </c>
       <c r="J32" s="2"/>
+      <c r="K32" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="s" s="166">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
@@ -4582,37 +5918,49 @@
         <v>139</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F33" t="n" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F33" t="n" s="2">
-        <v>0.25</v>
       </c>
       <c r="G33" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H33" t="s" s="71">
+      <c r="H33" t="s" s="167">
         <v>16</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J33" s="2"/>
+      <c r="K33" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="s" s="168">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
         <v>195</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" t="n" s="2">
         <v>0.25</v>
@@ -4623,56 +5971,82 @@
       <c r="G34" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H34" t="s" s="72">
+      <c r="H34" t="s" s="169">
         <v>16</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>166</v>
       </c>
       <c r="J34" s="2"/>
+      <c r="K34" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="s" s="170">
+        <v>16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n" s="2">
         <v>0.25</v>
       </c>
       <c r="F35" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G35" t="n" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="H35" t="s" s="171">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="K35" t="n" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L35" t="n" s="2">
         <v>0.5</v>
       </c>
-      <c r="G35" t="n" s="2">
+      <c r="M35" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H35" t="s" s="73">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="J35" s="2"/>
+      <c r="N35" t="s" s="172">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
         <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E36" t="n" s="2">
         <v>0.25</v>
@@ -4683,14 +6057,24 @@
       <c r="G36" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H36" t="s" s="74">
+      <c r="H36" t="s" s="173">
         <v>16</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="J36" t="s" s="2">
-        <v>18</v>
+      <c r="J36" s="2"/>
+      <c r="K36" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="s" s="174">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -4715,13 +6099,25 @@
       <c r="G37" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H37" t="s" s="75">
+      <c r="H37" t="s" s="175">
         <v>16</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J37" s="2"/>
+      <c r="K37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="s" s="176">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
@@ -4745,13 +6141,25 @@
       <c r="G38" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H38" t="s" s="76">
+      <c r="H38" t="s" s="177">
         <v>16</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>162</v>
       </c>
       <c r="J38" s="2"/>
+      <c r="K38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="s" s="178">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/SDF.xlsx
+++ b/SDF.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="197">
   <si>
     <t>No.</t>
   </si>
@@ -396,6 +396,9 @@
     <t>Patient introduces incorrect drug to the device</t>
   </si>
   <si>
+    <t>cc</t>
+  </si>
+  <si>
     <t>H22</t>
   </si>
   <si>
@@ -481,18 +484,6 @@
   </si>
   <si>
     <t>Pre-Initiating event for H27</t>
-  </si>
-  <si>
-    <t>H28</t>
-  </si>
-  <si>
-    <t>Drug delivery(Being pushed:Drug)(Being emptied&lt;hmm&gt;:Cartridge)</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H28</t>
   </si>
   <si>
     <t>Cause</t>
@@ -620,23 +611,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="57">
+  <fonts count="55">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Liberation Sans"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Liberation Sans"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -990,10 +971,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
@@ -1055,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
@@ -1074,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="41" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1097,7 +1078,6 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1117,13 +1097,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
@@ -3121,16 +3101,16 @@
       </c>
       <c r="H117" s="2"/>
       <c r="I117" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="J117" t="n" s="2">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="K117" t="n" s="2">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="L117" t="s" s="62">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -3726,18 +3706,20 @@
       <c r="G154" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H154" s="2"/>
+      <c r="H154" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="I154" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="J154" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="K154" t="n" s="2">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="L154" t="s" s="81">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
@@ -3750,10 +3732,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
@@ -3769,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160">
@@ -3777,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C160" t="s" s="1">
         <v>8</v>
@@ -3816,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C161" t="n" s="2">
         <v>0.25</v>
@@ -3857,10 +3839,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165">
@@ -3876,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167">
@@ -3884,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s" s="1">
         <v>8</v>
@@ -3923,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C168" t="n" s="2">
         <v>0.5</v>
@@ -3964,10 +3946,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172">
@@ -3983,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
@@ -3991,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C174" t="s" s="1">
         <v>8</v>
@@ -4030,7 +4012,7 @@
         <v>14</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C175" t="n" s="2">
         <v>0.5</v>
@@ -4066,7 +4048,7 @@
         <v>19</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C176" t="n" s="2">
         <v>0.25</v>
@@ -4107,10 +4089,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180">
@@ -4126,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
@@ -4134,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s" s="1">
         <v>8</v>
@@ -4173,7 +4155,7 @@
         <v>14</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C183" t="n" s="2">
         <v>0.25</v>
@@ -4209,7 +4191,7 @@
         <v>19</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C184" t="n" s="2">
         <v>0.25</v>
@@ -4250,10 +4232,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188">
@@ -4277,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C190" t="s" s="1">
         <v>8</v>
@@ -4316,7 +4298,7 @@
         <v>14</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C191" t="n" s="2">
         <v>0.25</v>
@@ -4357,10 +4339,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195">
@@ -4384,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>8</v>
@@ -4423,7 +4405,7 @@
         <v>14</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C198" t="n" s="2">
         <v>0.25</v>
@@ -4453,77 +4435,6 @@
       <c r="L198" t="s" s="103">
         <v>16</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="104">
-        <v>0</v>
-      </c>
-      <c r="B200" t="s" s="104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B201" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="B202" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s" s="1">
-        <v>159</v>
-      </c>
-      <c r="C204" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="D204" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="E204" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="H204" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="I204" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J204" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K204" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L204" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M204"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4566,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>8</v>
@@ -4601,7 +4512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>30</v>
@@ -4621,11 +4532,11 @@
       <c r="G2" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H2" t="s" s="105">
+      <c r="H2" t="s" s="104">
         <v>21</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>28</v>
@@ -4639,13 +4550,13 @@
       <c r="M2" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="N2" t="s" s="106">
+      <c r="N2" t="s" s="105">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>112</v>
@@ -4665,11 +4576,11 @@
       <c r="G3" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H3" t="s" s="107">
+      <c r="H3" t="s" s="106">
         <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="n" s="2">
@@ -4681,22 +4592,22 @@
       <c r="M3" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N3" t="s" s="108">
+      <c r="N3" t="s" s="107">
         <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" t="n" s="2">
         <v>0.5</v>
@@ -4707,11 +4618,11 @@
       <c r="G4" t="n" s="2">
         <v>0.25</v>
       </c>
-      <c r="H4" t="s" s="109">
+      <c r="H4" t="s" s="108">
         <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="n" s="2">
@@ -4723,13 +4634,13 @@
       <c r="M4" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N4" t="s" s="110">
+      <c r="N4" t="s" s="109">
         <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>3</v>
@@ -4749,11 +4660,11 @@
       <c r="G5" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H5" t="s" s="111">
+      <c r="H5" t="s" s="110">
         <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="n" s="2">
@@ -4765,13 +4676,13 @@
       <c r="M5" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="N5" t="s" s="112">
+      <c r="N5" t="s" s="111">
         <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>30</v>
@@ -4791,11 +4702,11 @@
       <c r="G6" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H6" t="s" s="113">
+      <c r="H6" t="s" s="112">
         <v>21</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>28</v>
@@ -4809,13 +4720,13 @@
       <c r="M6" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="N6" t="s" s="114">
+      <c r="N6" t="s" s="113">
         <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>42</v>
@@ -4835,11 +4746,11 @@
       <c r="G7" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H7" t="s" s="115">
+      <c r="H7" t="s" s="114">
         <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" t="n" s="2">
@@ -4851,13 +4762,13 @@
       <c r="M7" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N7" t="s" s="116">
+      <c r="N7" t="s" s="115">
         <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>53</v>
@@ -4877,11 +4788,11 @@
       <c r="G8" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H8" t="s" s="117">
+      <c r="H8" t="s" s="116">
         <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" t="n" s="2">
@@ -4893,13 +4804,13 @@
       <c r="M8" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N8" t="s" s="118">
+      <c r="N8" t="s" s="117">
         <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>58</v>
@@ -4919,11 +4830,11 @@
       <c r="G9" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H9" t="s" s="119">
+      <c r="H9" t="s" s="118">
         <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="n" s="2">
@@ -4935,13 +4846,13 @@
       <c r="M9" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N9" t="s" s="120">
+      <c r="N9" t="s" s="119">
         <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>80</v>
@@ -4961,11 +4872,11 @@
       <c r="G10" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H10" t="s" s="121">
+      <c r="H10" t="s" s="120">
         <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="n" s="2">
@@ -4977,13 +4888,13 @@
       <c r="M10" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N10" t="s" s="122">
+      <c r="N10" t="s" s="121">
         <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>96</v>
@@ -5003,29 +4914,29 @@
       <c r="G11" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H11" t="s" s="123">
+      <c r="H11" t="s" s="122">
         <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="L11" t="n" s="2">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N11" t="s" s="124">
-        <v>21</v>
+        <v>0.125</v>
+      </c>
+      <c r="N11" t="s" s="123">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>96</v>
@@ -5045,11 +4956,11 @@
       <c r="G12" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H12" t="s" s="125">
+      <c r="H12" t="s" s="124">
         <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" t="n" s="2">
@@ -5061,13 +4972,13 @@
       <c r="M12" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N12" t="s" s="126">
+      <c r="N12" t="s" s="125">
         <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
@@ -5087,11 +4998,11 @@
       <c r="G13" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H13" t="s" s="127">
+      <c r="H13" t="s" s="126">
         <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="n" s="2">
@@ -5103,13 +5014,13 @@
       <c r="M13" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N13" t="s" s="128">
+      <c r="N13" t="s" s="127">
         <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -5129,38 +5040,40 @@
       <c r="G14" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H14" t="s" s="129">
+      <c r="H14" t="s" s="128">
         <v>21</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="K14" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="L14" t="n" s="2">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="M14" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N14" t="s" s="130">
-        <v>21</v>
+        <v>0.0625</v>
+      </c>
+      <c r="N14" t="s" s="129">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n" s="2">
         <v>0.25</v>
@@ -5171,11 +5084,11 @@
       <c r="G15" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H15" t="s" s="131">
+      <c r="H15" t="s" s="130">
         <v>21</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" t="n" s="2">
@@ -5187,22 +5100,22 @@
       <c r="M15" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N15" t="s" s="132">
+      <c r="N15" t="s" s="131">
         <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" t="n" s="2">
         <v>0.25</v>
@@ -5213,11 +5126,11 @@
       <c r="G16" t="n" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H16" t="s" s="133">
+      <c r="H16" t="s" s="132">
         <v>21</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="n" s="2">
@@ -5229,13 +5142,13 @@
       <c r="M16" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N16" t="s" s="134">
+      <c r="N16" t="s" s="133">
         <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>117</v>
@@ -5255,11 +5168,11 @@
       <c r="G17" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H17" t="s" s="135">
+      <c r="H17" t="s" s="134">
         <v>16</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="n" s="2">
@@ -5271,22 +5184,22 @@
       <c r="M17" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N17" t="s" s="136">
+      <c r="N17" t="s" s="135">
         <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" t="n" s="2">
         <v>0.5</v>
@@ -5297,11 +5210,11 @@
       <c r="G18" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H18" t="s" s="137">
+      <c r="H18" t="s" s="136">
         <v>16</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="n" s="2">
@@ -5313,13 +5226,13 @@
       <c r="M18" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N18" t="s" s="138">
+      <c r="N18" t="s" s="137">
         <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>24</v>
@@ -5339,11 +5252,11 @@
       <c r="G19" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H19" t="s" s="139">
+      <c r="H19" t="s" s="138">
         <v>16</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>28</v>
@@ -5357,13 +5270,13 @@
       <c r="M19" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N19" t="s" s="140">
+      <c r="N19" t="s" s="139">
         <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>36</v>
@@ -5383,11 +5296,11 @@
       <c r="G20" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H20" t="s" s="141">
+      <c r="H20" t="s" s="140">
         <v>16</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="n" s="2">
@@ -5399,13 +5312,13 @@
       <c r="M20" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N20" t="s" s="142">
+      <c r="N20" t="s" s="141">
         <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>36</v>
@@ -5425,11 +5338,11 @@
       <c r="G21" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H21" t="s" s="143">
+      <c r="H21" t="s" s="142">
         <v>16</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="n" s="2">
@@ -5441,13 +5354,13 @@
       <c r="M21" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N21" t="s" s="144">
+      <c r="N21" t="s" s="143">
         <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>48</v>
@@ -5467,11 +5380,11 @@
       <c r="G22" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H22" t="s" s="145">
+      <c r="H22" t="s" s="144">
         <v>16</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="n" s="2">
@@ -5483,13 +5396,13 @@
       <c r="M22" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N22" t="s" s="146">
+      <c r="N22" t="s" s="145">
         <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>61</v>
@@ -5509,11 +5422,11 @@
       <c r="G23" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H23" t="s" s="147">
+      <c r="H23" t="s" s="146">
         <v>16</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" t="n" s="2">
@@ -5525,13 +5438,13 @@
       <c r="M23" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N23" t="s" s="148">
+      <c r="N23" t="s" s="147">
         <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>64</v>
@@ -5551,11 +5464,11 @@
       <c r="G24" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H24" t="s" s="149">
+      <c r="H24" t="s" s="148">
         <v>16</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="n" s="2">
@@ -5567,13 +5480,13 @@
       <c r="M24" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N24" t="s" s="150">
+      <c r="N24" t="s" s="149">
         <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>69</v>
@@ -5593,11 +5506,11 @@
       <c r="G25" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H25" t="s" s="151">
+      <c r="H25" t="s" s="150">
         <v>16</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="n" s="2">
@@ -5609,13 +5522,13 @@
       <c r="M25" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N25" t="s" s="152">
+      <c r="N25" t="s" s="151">
         <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>74</v>
@@ -5635,11 +5548,11 @@
       <c r="G26" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H26" t="s" s="153">
+      <c r="H26" t="s" s="152">
         <v>16</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="n" s="2">
@@ -5651,13 +5564,13 @@
       <c r="M26" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N26" t="s" s="154">
+      <c r="N26" t="s" s="153">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>74</v>
@@ -5677,11 +5590,11 @@
       <c r="G27" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H27" t="s" s="155">
+      <c r="H27" t="s" s="154">
         <v>16</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="n" s="2">
@@ -5693,13 +5606,13 @@
       <c r="M27" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N27" t="s" s="156">
+      <c r="N27" t="s" s="155">
         <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>85</v>
@@ -5719,11 +5632,11 @@
       <c r="G28" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H28" t="s" s="157">
+      <c r="H28" t="s" s="156">
         <v>16</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="n" s="2">
@@ -5735,13 +5648,13 @@
       <c r="M28" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N28" t="s" s="158">
+      <c r="N28" t="s" s="157">
         <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>85</v>
@@ -5761,11 +5674,11 @@
       <c r="G29" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H29" t="s" s="159">
+      <c r="H29" t="s" s="158">
         <v>16</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" t="n" s="2">
@@ -5777,13 +5690,13 @@
       <c r="M29" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N29" t="s" s="160">
+      <c r="N29" t="s" s="159">
         <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>91</v>
@@ -5803,11 +5716,11 @@
       <c r="G30" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H30" t="s" s="161">
+      <c r="H30" t="s" s="160">
         <v>16</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" t="n" s="2">
@@ -5819,13 +5732,13 @@
       <c r="M30" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N30" t="s" s="162">
+      <c r="N30" t="s" s="161">
         <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>102</v>
@@ -5845,11 +5758,11 @@
       <c r="G31" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H31" t="s" s="163">
+      <c r="H31" t="s" s="162">
         <v>16</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" t="n" s="2">
@@ -5861,13 +5774,13 @@
       <c r="M31" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N31" t="s" s="164">
+      <c r="N31" t="s" s="163">
         <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>117</v>
@@ -5887,11 +5800,11 @@
       <c r="G32" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H32" t="s" s="165">
+      <c r="H32" t="s" s="164">
         <v>16</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="n" s="2">
@@ -5903,22 +5816,22 @@
       <c r="M32" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N32" t="s" s="166">
+      <c r="N32" t="s" s="165">
         <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n" s="2">
         <v>0.25</v>
@@ -5929,11 +5842,11 @@
       <c r="G33" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H33" t="s" s="167">
+      <c r="H33" t="s" s="166">
         <v>16</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" t="n" s="2">
@@ -5945,22 +5858,22 @@
       <c r="M33" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N33" t="s" s="168">
+      <c r="N33" t="s" s="167">
         <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E34" t="n" s="2">
         <v>0.25</v>
@@ -5971,11 +5884,11 @@
       <c r="G34" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="H34" t="s" s="169">
+      <c r="H34" t="s" s="168">
         <v>16</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="n" s="2">
@@ -5987,13 +5900,13 @@
       <c r="M34" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N34" t="s" s="170">
+      <c r="N34" t="s" s="169">
         <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>3</v>
@@ -6013,11 +5926,11 @@
       <c r="G35" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H35" t="s" s="171">
+      <c r="H35" t="s" s="170">
         <v>16</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>18</v>
@@ -6031,13 +5944,13 @@
       <c r="M35" t="n" s="2">
         <v>0.125</v>
       </c>
-      <c r="N35" t="s" s="172">
+      <c r="N35" t="s" s="171">
         <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>42</v>
@@ -6057,11 +5970,11 @@
       <c r="G36" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H36" t="s" s="173">
+      <c r="H36" t="s" s="172">
         <v>16</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="n" s="2">
@@ -6073,22 +5986,22 @@
       <c r="M36" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N36" t="s" s="174">
+      <c r="N36" t="s" s="173">
         <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" t="n" s="2">
         <v>0.25</v>
@@ -6099,11 +6012,11 @@
       <c r="G37" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H37" t="s" s="175">
+      <c r="H37" t="s" s="174">
         <v>16</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" t="n" s="2">
@@ -6115,22 +6028,22 @@
       <c r="M37" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N37" t="s" s="176">
+      <c r="N37" t="s" s="175">
         <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" t="n" s="2">
         <v>0.25</v>
@@ -6141,11 +6054,11 @@
       <c r="G38" t="n" s="2">
         <v>0.0625</v>
       </c>
-      <c r="H38" t="s" s="177">
+      <c r="H38" t="s" s="176">
         <v>16</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" t="n" s="2">
@@ -6157,7 +6070,7 @@
       <c r="M38" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="N38" t="s" s="178">
+      <c r="N38" t="s" s="177">
         <v>16</v>
       </c>
     </row>
